--- a/Thème 4_Les données structurées et leur traitement/Assets/contacts.xlsx
+++ b/Thème 4_Les données structurées et leur traitement/Assets/contacts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentlesieux/SNT_cours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentlesieux/SNT-git/Thème 4_Les données structurées et leur traitement/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B779878A-2E12-964A-AB1F-7B3D6BC6948D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FFA293-B464-0347-A7D3-7AD792F34067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{42C48E02-89ED-8A46-A271-FBACB3D5902B}"/>
   </bookViews>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0#&quot; &quot;##&quot; &quot;##&quot; &quot;##&quot; &quot;##"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,17 +478,17 @@
   <dimension ref="C4:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -528,7 +528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -548,7 +548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -568,7 +568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -588,13 +588,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E11" s="4"/>
     </row>
   </sheetData>
